--- a/data/data_analyse_result/result.xlsx
+++ b/data/data_analyse_result/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="25">
   <si>
     <t>policy</t>
   </si>
@@ -46,49 +46,49 @@
     <t>mean_argent_use</t>
   </si>
   <si>
-    <t>_buy_fv_3__sold_fv_new</t>
+    <t>from_to</t>
+  </si>
+  <si>
+    <t>duree</t>
+  </si>
+  <si>
+    <t>_buy_basic__sold_basic</t>
+  </si>
+  <si>
+    <t>_buy_basic__sold_fv</t>
+  </si>
+  <si>
+    <t>_buy_fv_10__sold_basic</t>
+  </si>
+  <si>
+    <t>_buy_fv_10__sold_fv</t>
+  </si>
+  <si>
+    <t>_buy_fv_3__sold_basic</t>
   </si>
   <si>
     <t>_buy_fv_4__sold_fv</t>
   </si>
   <si>
-    <t>_buy_fv_10__sold_fv</t>
-  </si>
-  <si>
-    <t>_buy_fv_3__sold_basic</t>
-  </si>
-  <si>
-    <t>_buy_fv_3__sold_fv</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_fv_new/min_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_fv_new/max_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_4_sold_fv/min_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_4_sold_fv/max_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_10_sold_fv/max_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_10_sold_fv/min_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_basic/min_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_basic/max_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_fv/min_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_fv/max_0</t>
+    <t>_buy_fv__sold_basic</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>20150608_20191104</t>
+  </si>
+  <si>
+    <t>20090113_20191104</t>
+  </si>
+  <si>
+    <t>20090803_20191104</t>
   </si>
 </sst>
 </file>
@@ -446,13 +446,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,288 +483,342 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>165647.8365906624</v>
+        <v>44276.35047303024</v>
       </c>
       <c r="E2">
-        <v>0.1697948524413417</v>
+        <v>0.1024915520209033</v>
       </c>
       <c r="F2">
-        <v>975576.3158243448</v>
+        <v>432000</v>
       </c>
       <c r="G2">
-        <v>0.08389373478393788</v>
+        <v>0.02293012645430801</v>
       </c>
       <c r="H2">
-        <v>0.09417083454075835</v>
+        <v>0.07935418064199232</v>
       </c>
       <c r="I2">
+        <v>0.1506976744186047</v>
+      </c>
+      <c r="J2">
+        <v>-11370.41637211642</v>
+      </c>
+      <c r="K2">
+        <v>0.2869205451269181</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>127725.707008559</v>
+      </c>
+      <c r="E3">
+        <v>0.1325374400863878</v>
+      </c>
+      <c r="F3">
+        <v>963695.2918760728</v>
+      </c>
+      <c r="G3">
+        <v>0.0532697884879622</v>
+      </c>
+      <c r="H3">
+        <v>0.09048875473515647</v>
+      </c>
+      <c r="I3">
         <v>0.5098934550989346</v>
       </c>
-      <c r="J2">
-        <v>-56600.70935944584</v>
-      </c>
-      <c r="K2">
-        <v>0.09268038830880151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>56466.60058826779</v>
-      </c>
-      <c r="E3">
-        <v>0.1202292414277818</v>
-      </c>
-      <c r="F3">
-        <v>469657.7963704912</v>
-      </c>
-      <c r="G3">
-        <v>0.04060414019932865</v>
-      </c>
-      <c r="H3">
-        <v>0.07735508841661565</v>
-      </c>
-      <c r="I3">
-        <v>0.3404651162790698</v>
-      </c>
       <c r="J3">
-        <v>-12981.99399497337</v>
+        <v>-60520.61620121475</v>
       </c>
       <c r="K3">
-        <v>0.137747990585621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>0.3146196474240057</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>180176.8456481666</v>
+        <v>119186.2034417923</v>
       </c>
       <c r="E4">
-        <v>0.1793914006288787</v>
+        <v>0.1309198059229805</v>
       </c>
       <c r="F4">
-        <v>1004378.387238934</v>
+        <v>910375.6502045912</v>
       </c>
       <c r="G4">
-        <v>0.09732736536690156</v>
+        <v>0.03018408822912571</v>
       </c>
       <c r="H4">
-        <v>0.09282770266203999</v>
+        <v>0.1050069516421074</v>
       </c>
       <c r="I4">
-        <v>0.5559360730593608</v>
+        <v>0.4600882470918572</v>
       </c>
       <c r="J4">
-        <v>-53559.32279755827</v>
+        <v>-64647.7293802941</v>
       </c>
       <c r="K4">
-        <v>0.07992680369209353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.3420148864160865</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>64684.47672746948</v>
+        <v>47750.84698894864</v>
       </c>
       <c r="E5">
-        <v>0.1313906511290834</v>
+        <v>0.1105343680299737</v>
       </c>
       <c r="F5">
-        <v>492306.5391001133</v>
+        <v>432000</v>
       </c>
       <c r="G5">
-        <v>0.04630197081367717</v>
+        <v>0.0256137222318628</v>
       </c>
       <c r="H5">
-        <v>0.07995207726609407</v>
+        <v>0.08187240112222208</v>
       </c>
       <c r="I5">
-        <v>0.3488372093023256</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="J5">
-        <v>-15784.95463945612</v>
+        <v>-11370.41637211642</v>
       </c>
       <c r="K5">
-        <v>0.1673844962576319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.296625001155902</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>133527.2471775612</v>
+      </c>
+      <c r="E6">
+        <v>0.1411371113862966</v>
+      </c>
+      <c r="F6">
+        <v>946081.7630884694</v>
+      </c>
+      <c r="G6">
+        <v>0.0585557746797869</v>
+      </c>
+      <c r="H6">
+        <v>0.09540662825597523</v>
+      </c>
+      <c r="I6">
+        <v>0.5190258751902588</v>
+      </c>
+      <c r="J6">
+        <v>-60202.39496501541</v>
+      </c>
+      <c r="K6">
+        <v>0.3127610986595709</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>125867.7707028589</v>
+      </c>
+      <c r="E7">
+        <v>0.1409022983503566</v>
+      </c>
+      <c r="F7">
+        <v>893298.208591928</v>
+      </c>
+      <c r="G7">
+        <v>0.03760661446654573</v>
+      </c>
+      <c r="H7">
+        <v>0.1110844708236402</v>
+      </c>
+      <c r="I7">
+        <v>0.4813477737665463</v>
+      </c>
+      <c r="J7">
+        <v>-63863.1929210753</v>
+      </c>
+      <c r="K7">
+        <v>0.3387248884269816</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D6">
-        <v>131646.1966876024</v>
-      </c>
-      <c r="E6">
-        <v>0.1506886271800632</v>
-      </c>
-      <c r="F6">
-        <v>873630.6060462925</v>
-      </c>
-      <c r="G6">
-        <v>0.07553840421616637</v>
-      </c>
-      <c r="H6">
-        <v>0.06914721822063097</v>
-      </c>
-      <c r="I6">
-        <v>0.466046511627907</v>
-      </c>
-      <c r="J6">
-        <v>-27396.57470714394</v>
-      </c>
-      <c r="K6">
-        <v>0.02947544751255052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8">
+        <v>104234.0430075484</v>
+      </c>
+      <c r="E8">
+        <v>0.133268664325106</v>
+      </c>
+      <c r="F8">
+        <v>782134.6716079609</v>
+      </c>
+      <c r="G8">
+        <v>0.0651719438133111</v>
+      </c>
+      <c r="H8">
+        <v>0.06254822531437192</v>
+      </c>
+      <c r="I8">
+        <v>0.3618604651162791</v>
+      </c>
+      <c r="J8">
+        <v>-27396.57470714371</v>
+      </c>
+      <c r="K8">
+        <v>0.5026717901480494</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>397723.6401862549</v>
-      </c>
-      <c r="E7">
-        <v>0.2005447762411771</v>
-      </c>
-      <c r="F7">
-        <v>1983216.155717507</v>
-      </c>
-      <c r="G7">
-        <v>0.1271964577335324</v>
-      </c>
-      <c r="H7">
-        <v>0.08176650967388423</v>
-      </c>
-      <c r="I7">
-        <v>0.6510654490106544</v>
-      </c>
-      <c r="J7">
-        <v>-85738.31733575929</v>
-      </c>
-      <c r="K7">
-        <v>0.003235834664194836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>147102.3623964777</v>
-      </c>
-      <c r="E8">
-        <v>0.1524518760200172</v>
-      </c>
-      <c r="F8">
-        <v>964910.1489388223</v>
-      </c>
-      <c r="G8">
-        <v>0.07900003695443923</v>
-      </c>
-      <c r="H8">
-        <v>0.08450785457193727</v>
-      </c>
-      <c r="I8">
-        <v>0.5449010654490106</v>
-      </c>
-      <c r="J8">
-        <v>-52190.08940183127</v>
-      </c>
-      <c r="K8">
-        <v>0.09300651926034569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
       <c r="D9">
-        <v>53754.56691081554</v>
+        <v>99766.59927891492</v>
       </c>
       <c r="E9">
-        <v>0.115452728744054</v>
+        <v>0.1635219315961921</v>
       </c>
       <c r="F9">
-        <v>465598.0633423009</v>
+        <v>610111.4285102913</v>
       </c>
       <c r="G9">
-        <v>0.03631398054430478</v>
+        <v>0.0961660265806021</v>
       </c>
       <c r="H9">
-        <v>0.07786667464170507</v>
+        <v>0.08115040624599516</v>
       </c>
       <c r="I9">
-        <v>0.3051162790697675</v>
+        <v>0.6213850837138508</v>
       </c>
       <c r="J9">
-        <v>-14810.0400758899</v>
+        <v>-44540.1187487249</v>
       </c>
       <c r="K9">
-        <v>0.1514095258560459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.1750983155315715</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -772,66 +826,529 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>124987.9848905976</v>
+      </c>
+      <c r="E10">
+        <v>0.1594663050223913</v>
+      </c>
+      <c r="F10">
+        <v>783789.3081742097</v>
+      </c>
+      <c r="G10">
+        <v>0.08388305159458413</v>
+      </c>
+      <c r="H10">
+        <v>0.08122272205361142</v>
+      </c>
+      <c r="I10">
+        <v>0.538307260328921</v>
+      </c>
+      <c r="J10">
+        <v>-45127.53324691765</v>
+      </c>
+      <c r="K10">
+        <v>0.2142069762485717</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>108883.5818591629</v>
+      </c>
+      <c r="E11">
+        <v>0.1471657170223835</v>
+      </c>
+      <c r="F11">
+        <v>739870.5626705301</v>
+      </c>
+      <c r="G11">
+        <v>0.06905068413079735</v>
+      </c>
+      <c r="H11">
+        <v>0.06619507832830258</v>
+      </c>
+      <c r="I11">
+        <v>0.3925581395348837</v>
+      </c>
+      <c r="J11">
+        <v>-27396.57470714371</v>
+      </c>
+      <c r="K11">
+        <v>0.5268200753313751</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>107163.8707196077</v>
+      </c>
+      <c r="E12">
+        <v>0.1865979204668056</v>
+      </c>
+      <c r="F12">
+        <v>574303.6709708205</v>
+      </c>
+      <c r="G12">
+        <v>0.1087943023137702</v>
+      </c>
+      <c r="H12">
+        <v>0.09159312017461795</v>
+      </c>
+      <c r="I12">
+        <v>0.6278538812785388</v>
+      </c>
+      <c r="J12">
+        <v>-43395.82866254219</v>
+      </c>
+      <c r="K12">
+        <v>0.1692436051551902</v>
+      </c>
+      <c r="L12" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
-        <v>167521.359474035</v>
-      </c>
-      <c r="E10">
-        <v>0.1727150835487359</v>
-      </c>
-      <c r="F10">
-        <v>969928.9490646285</v>
-      </c>
-      <c r="G10">
-        <v>0.0901685806563421</v>
-      </c>
-      <c r="H10">
-        <v>0.09425969902855691</v>
-      </c>
-      <c r="I10">
-        <v>0.5471841704718418</v>
-      </c>
-      <c r="J10">
-        <v>-55195.14398118109</v>
-      </c>
-      <c r="K10">
-        <v>0.09096650938018869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="M12">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>132985.3853734115</v>
+      </c>
+      <c r="E13">
+        <v>0.1791074493176543</v>
+      </c>
+      <c r="F13">
+        <v>742489.4155996635</v>
+      </c>
+      <c r="G13">
+        <v>0.09777551860618036</v>
+      </c>
+      <c r="H13">
+        <v>0.08700800876430004</v>
+      </c>
+      <c r="I13">
+        <v>0.5623746490172483</v>
+      </c>
+      <c r="J13">
+        <v>-39780.99065480908</v>
+      </c>
+      <c r="K13">
+        <v>0.2093165712144704</v>
+      </c>
+      <c r="L13" t="s">
         <v>24</v>
       </c>
-      <c r="D11">
-        <v>59140.84879421094</v>
-      </c>
-      <c r="E11">
-        <v>0.1263848261454278</v>
-      </c>
-      <c r="F11">
-        <v>467942.6367700113</v>
-      </c>
-      <c r="G11">
-        <v>0.04022483025974641</v>
-      </c>
-      <c r="H11">
-        <v>0.08146849881778327</v>
-      </c>
-      <c r="I11">
-        <v>0.3404651162790698</v>
-      </c>
-      <c r="J11">
+      <c r="M13">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>53754.56691081543</v>
+      </c>
+      <c r="E14">
+        <v>0.1154527287440537</v>
+      </c>
+      <c r="F14">
+        <v>465598.0633423009</v>
+      </c>
+      <c r="G14">
+        <v>0.03631398054430435</v>
+      </c>
+      <c r="H14">
+        <v>0.07786667464170509</v>
+      </c>
+      <c r="I14">
+        <v>0.3051162790697675</v>
+      </c>
+      <c r="J14">
         <v>-14810.0400758899</v>
       </c>
-      <c r="K11">
-        <v>0.1597048224129385</v>
+      <c r="K14">
+        <v>0.3028190517120923</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>119544.2497126597</v>
+      </c>
+      <c r="E15">
+        <v>0.1495735962188137</v>
+      </c>
+      <c r="F15">
+        <v>799233.6397245969</v>
+      </c>
+      <c r="G15">
+        <v>0.07657430930014036</v>
+      </c>
+      <c r="H15">
+        <v>0.08415908418097431</v>
+      </c>
+      <c r="I15">
+        <v>0.5445205479452054</v>
+      </c>
+      <c r="J15">
+        <v>-47948.61229581232</v>
+      </c>
+      <c r="K15">
+        <v>0.2029683584761705</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>110827.7653819788</v>
+      </c>
+      <c r="E16">
+        <v>0.1481136829839156</v>
+      </c>
+      <c r="F16">
+        <v>748261.4917759763</v>
+      </c>
+      <c r="G16">
+        <v>0.04989205136202098</v>
+      </c>
+      <c r="H16">
+        <v>0.1036674652480942</v>
+      </c>
+      <c r="I16">
+        <v>0.4849578820697955</v>
+      </c>
+      <c r="J16">
+        <v>-63312.11534640848</v>
+      </c>
+      <c r="K16">
+        <v>0.2824419136067811</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>64684.47672747052</v>
+      </c>
+      <c r="E17">
+        <v>0.1313906511290855</v>
+      </c>
+      <c r="F17">
+        <v>492306.5391001133</v>
+      </c>
+      <c r="G17">
+        <v>0.04630197081367909</v>
+      </c>
+      <c r="H17">
+        <v>0.07995207726609381</v>
+      </c>
+      <c r="I17">
+        <v>0.3488372093023256</v>
+      </c>
+      <c r="J17">
+        <v>-15784.95463945589</v>
+      </c>
+      <c r="K17">
+        <v>0.3347689925152625</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>119634.6283815814</v>
+      </c>
+      <c r="E18">
+        <v>0.1693662551524846</v>
+      </c>
+      <c r="F18">
+        <v>706366.3790279318</v>
+      </c>
+      <c r="G18">
+        <v>0.08810539286551888</v>
+      </c>
+      <c r="H18">
+        <v>0.09443000932576086</v>
+      </c>
+      <c r="I18">
+        <v>0.5540334855403348</v>
+      </c>
+      <c r="J18">
+        <v>-50417.60851346125</v>
+      </c>
+      <c r="K18">
+        <v>0.195520624004034</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>112881.9748078844</v>
+      </c>
+      <c r="E19">
+        <v>0.1651661698597414</v>
+      </c>
+      <c r="F19">
+        <v>683444.8900991248</v>
+      </c>
+      <c r="G19">
+        <v>0.06043284095952262</v>
+      </c>
+      <c r="H19">
+        <v>0.1110277851596362</v>
+      </c>
+      <c r="I19">
+        <v>0.4905736060970718</v>
+      </c>
+      <c r="J19">
+        <v>-64287.51312006393</v>
+      </c>
+      <c r="K19">
+        <v>0.27962423722393</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>49809.27387581347</v>
+      </c>
+      <c r="E20">
+        <v>0.1109338673589908</v>
+      </c>
+      <c r="F20">
+        <v>448999.7064163164</v>
+      </c>
+      <c r="G20">
+        <v>0.03033273865251962</v>
+      </c>
+      <c r="H20">
+        <v>0.07961675178693522</v>
+      </c>
+      <c r="I20">
+        <v>0.2493023255813953</v>
+      </c>
+      <c r="J20">
+        <v>-13903.8739110856</v>
+      </c>
+      <c r="K20">
+        <v>0.2953706684394327</v>
+      </c>
+      <c r="L20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>120740.5275577168</v>
+      </c>
+      <c r="E21">
+        <v>0.1451260213343937</v>
+      </c>
+      <c r="F21">
+        <v>831970.2176600789</v>
+      </c>
+      <c r="G21">
+        <v>0.0699877907434145</v>
+      </c>
+      <c r="H21">
+        <v>0.08669838809529637</v>
+      </c>
+      <c r="I21">
+        <v>0.5403348554033486</v>
+      </c>
+      <c r="J21">
+        <v>-50612.526130602</v>
+      </c>
+      <c r="K21">
+        <v>0.229421980457415</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>115881.9823468595</v>
+      </c>
+      <c r="E22">
+        <v>0.1441969251904151</v>
+      </c>
+      <c r="F22">
+        <v>803636.9859748038</v>
+      </c>
+      <c r="G22">
+        <v>0.04543711576135022</v>
+      </c>
+      <c r="H22">
+        <v>0.1038283044415208</v>
+      </c>
+      <c r="I22">
+        <v>0.4817488969113518</v>
+      </c>
+      <c r="J22">
+        <v>-62479.10254027066</v>
+      </c>
+      <c r="K22">
+        <v>0.2899224968867388</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>3745</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_analyse_result/result.xlsx
+++ b/data/data_analyse_result/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>policy</t>
   </si>
@@ -61,34 +61,10 @@
     <t>_buy_fv_3__sold_fv</t>
   </si>
   <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_fv_new/min_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_fv_new/max_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_4_sold_fv/min_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_4_sold_fv/max_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_10_sold_fv/max_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_10_sold_fv/min_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_basic/min_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_basic/max_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_fv/min_0</t>
-  </si>
-  <si>
-    <t>../data/data_ananlyse/_buy_fv_3_sold_fv/max_0</t>
+    <t>min_0</t>
+  </si>
+  <si>
+    <t>max_0</t>
   </si>
 </sst>
 </file>
@@ -562,7 +538,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>180176.8456481666</v>
@@ -597,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>64684.47672746948</v>
@@ -632,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>131646.1966876024</v>
@@ -667,7 +643,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>397723.6401862549</v>
@@ -702,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>147102.3623964777</v>
@@ -737,7 +713,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>53754.56691081554</v>
@@ -772,7 +748,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>167521.359474035</v>
@@ -807,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>59140.84879421094</v>

--- a/data/data_analyse_result/result.xlsx
+++ b/data/data_analyse_result/result.xlsx
@@ -52,43 +52,43 @@
     <t>duree</t>
   </si>
   <si>
+    <t>_buy_fv_10__sold_fv</t>
+  </si>
+  <si>
+    <t>_buy_basic__sold_fv</t>
+  </si>
+  <si>
+    <t>_buy_fv_10__sold_basic</t>
+  </si>
+  <si>
     <t>_buy_basic__sold_basic</t>
   </si>
   <si>
-    <t>_buy_basic__sold_fv</t>
-  </si>
-  <si>
-    <t>_buy_fv_10__sold_basic</t>
-  </si>
-  <si>
-    <t>_buy_fv_10__sold_fv</t>
+    <t>_buy_fv__sold_basic</t>
+  </si>
+  <si>
+    <t>_buy_fv_4__sold_fv</t>
   </si>
   <si>
     <t>_buy_fv_3__sold_basic</t>
   </si>
   <si>
-    <t>_buy_fv_4__sold_fv</t>
-  </si>
-  <si>
-    <t>_buy_fv__sold_basic</t>
+    <t>now</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
   <si>
     <t>max</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>now</t>
+    <t>20090803_20191104</t>
+  </si>
+  <si>
+    <t>20090113_20191104</t>
   </si>
   <si>
     <t>20150608_20191104</t>
-  </si>
-  <si>
-    <t>20090113_20191104</t>
-  </si>
-  <si>
-    <t>20090803_20191104</t>
   </si>
 </sst>
 </file>
@@ -501,34 +501,34 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>44276.35047303024</v>
+        <v>132985.3853734115</v>
       </c>
       <c r="E2">
-        <v>0.1024915520209033</v>
+        <v>0.1791074493176543</v>
       </c>
       <c r="F2">
-        <v>432000</v>
+        <v>742489.4155996635</v>
       </c>
       <c r="G2">
-        <v>0.02293012645430801</v>
+        <v>0.09777551860618036</v>
       </c>
       <c r="H2">
-        <v>0.07935418064199232</v>
+        <v>0.08700800876430004</v>
       </c>
       <c r="I2">
-        <v>0.1506976744186047</v>
+        <v>0.5623746490172483</v>
       </c>
       <c r="J2">
-        <v>-11370.41637211642</v>
+        <v>-39780.99065480908</v>
       </c>
       <c r="K2">
-        <v>0.2869205451269181</v>
+        <v>0.2093165712144704</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2">
-        <v>1610</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -536,40 +536,40 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>127725.707008559</v>
+        <v>125867.7707028589</v>
       </c>
       <c r="E3">
-        <v>0.1325374400863878</v>
+        <v>0.1409022983503566</v>
       </c>
       <c r="F3">
-        <v>963695.2918760728</v>
+        <v>893298.208591928</v>
       </c>
       <c r="G3">
-        <v>0.0532697884879622</v>
+        <v>0.03760661446654573</v>
       </c>
       <c r="H3">
-        <v>0.09048875473515647</v>
+        <v>0.1110844708236402</v>
       </c>
       <c r="I3">
-        <v>0.5098934550989346</v>
+        <v>0.4813477737665463</v>
       </c>
       <c r="J3">
-        <v>-60520.61620121475</v>
+        <v>-63863.1929210753</v>
       </c>
       <c r="K3">
-        <v>0.3146196474240057</v>
+        <v>0.3387248884269816</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3">
-        <v>3947</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -577,37 +577,37 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>119186.2034417923</v>
+        <v>124987.9848905976</v>
       </c>
       <c r="E4">
-        <v>0.1309198059229805</v>
+        <v>0.1594663050223913</v>
       </c>
       <c r="F4">
-        <v>910375.6502045912</v>
+        <v>783789.3081742097</v>
       </c>
       <c r="G4">
-        <v>0.03018408822912571</v>
+        <v>0.08388305159458413</v>
       </c>
       <c r="H4">
-        <v>0.1050069516421074</v>
+        <v>0.08122272205361142</v>
       </c>
       <c r="I4">
-        <v>0.4600882470918572</v>
+        <v>0.538307260328921</v>
       </c>
       <c r="J4">
-        <v>-64647.7293802941</v>
+        <v>-45127.53324691765</v>
       </c>
       <c r="K4">
-        <v>0.3420148864160865</v>
+        <v>0.2142069762485717</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M4">
         <v>3745</v>
@@ -618,40 +618,40 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5">
-        <v>47750.84698894864</v>
+        <v>119186.2034417923</v>
       </c>
       <c r="E5">
-        <v>0.1105343680299737</v>
+        <v>0.1309198059229805</v>
       </c>
       <c r="F5">
-        <v>432000</v>
+        <v>910375.6502045912</v>
       </c>
       <c r="G5">
-        <v>0.0256137222318628</v>
+        <v>0.03018408822912571</v>
       </c>
       <c r="H5">
-        <v>0.08187240112222208</v>
+        <v>0.1050069516421074</v>
       </c>
       <c r="I5">
-        <v>0.2325581395348837</v>
+        <v>0.4600882470918572</v>
       </c>
       <c r="J5">
-        <v>-11370.41637211642</v>
+        <v>-64647.7293802941</v>
       </c>
       <c r="K5">
-        <v>0.296625001155902</v>
+        <v>0.3420148864160865</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
       </c>
       <c r="M5">
-        <v>1610</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>133527.2471775612</v>
+        <v>115881.9823468595</v>
       </c>
       <c r="E6">
-        <v>0.1411371113862966</v>
+        <v>0.1441969251904151</v>
       </c>
       <c r="F6">
-        <v>946081.7630884694</v>
+        <v>803636.9859748038</v>
       </c>
       <c r="G6">
-        <v>0.0585557746797869</v>
+        <v>0.04543711576135022</v>
       </c>
       <c r="H6">
-        <v>0.09540662825597523</v>
+        <v>0.1038283044415208</v>
       </c>
       <c r="I6">
-        <v>0.5190258751902588</v>
+        <v>0.4817488969113518</v>
       </c>
       <c r="J6">
-        <v>-60202.39496501541</v>
+        <v>-62479.10254027066</v>
       </c>
       <c r="K6">
-        <v>0.3127610986595709</v>
+        <v>0.2899224968867388</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>3947</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -700,37 +700,37 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>125867.7707028589</v>
+        <v>112881.9748078844</v>
       </c>
       <c r="E7">
-        <v>0.1409022983503566</v>
+        <v>0.1651661698597414</v>
       </c>
       <c r="F7">
-        <v>893298.208591928</v>
+        <v>683444.8900991248</v>
       </c>
       <c r="G7">
-        <v>0.03760661446654573</v>
+        <v>0.06043284095952262</v>
       </c>
       <c r="H7">
-        <v>0.1110844708236402</v>
+        <v>0.1110277851596362</v>
       </c>
       <c r="I7">
-        <v>0.4813477737665463</v>
+        <v>0.4905736060970718</v>
       </c>
       <c r="J7">
-        <v>-63863.1929210753</v>
+        <v>-64287.51312006393</v>
       </c>
       <c r="K7">
-        <v>0.3387248884269816</v>
+        <v>0.27962423722393</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M7">
         <v>3745</v>
@@ -741,40 +741,40 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8">
-        <v>104234.0430075484</v>
+        <v>110827.7653819788</v>
       </c>
       <c r="E8">
-        <v>0.133268664325106</v>
+        <v>0.1481136829839156</v>
       </c>
       <c r="F8">
-        <v>782134.6716079609</v>
+        <v>748261.4917759763</v>
       </c>
       <c r="G8">
-        <v>0.0651719438133111</v>
+        <v>0.04989205136202098</v>
       </c>
       <c r="H8">
-        <v>0.06254822531437192</v>
+        <v>0.1036674652480942</v>
       </c>
       <c r="I8">
-        <v>0.3618604651162791</v>
+        <v>0.4849578820697955</v>
       </c>
       <c r="J8">
-        <v>-27396.57470714371</v>
+        <v>-63312.11534640848</v>
       </c>
       <c r="K8">
-        <v>0.5026717901480494</v>
+        <v>0.2824419136067811</v>
       </c>
       <c r="L8" t="s">
         <v>22</v>
       </c>
       <c r="M8">
-        <v>1610</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -782,34 +782,34 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9">
-        <v>99766.59927891492</v>
+        <v>133527.2471775612</v>
       </c>
       <c r="E9">
-        <v>0.1635219315961921</v>
+        <v>0.1411371113862966</v>
       </c>
       <c r="F9">
-        <v>610111.4285102913</v>
+        <v>946081.7630884694</v>
       </c>
       <c r="G9">
-        <v>0.0961660265806021</v>
+        <v>0.0585557746797869</v>
       </c>
       <c r="H9">
-        <v>0.08115040624599516</v>
+        <v>0.09540662825597523</v>
       </c>
       <c r="I9">
-        <v>0.6213850837138508</v>
+        <v>0.5190258751902588</v>
       </c>
       <c r="J9">
-        <v>-44540.1187487249</v>
+        <v>-60202.39496501541</v>
       </c>
       <c r="K9">
-        <v>0.1750983155315715</v>
+        <v>0.3127610986595709</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
@@ -823,40 +823,40 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>124987.9848905976</v>
+        <v>127725.707008559</v>
       </c>
       <c r="E10">
-        <v>0.1594663050223913</v>
+        <v>0.1325374400863878</v>
       </c>
       <c r="F10">
-        <v>783789.3081742097</v>
+        <v>963695.2918760728</v>
       </c>
       <c r="G10">
-        <v>0.08388305159458413</v>
+        <v>0.0532697884879622</v>
       </c>
       <c r="H10">
-        <v>0.08122272205361142</v>
+        <v>0.09048875473515647</v>
       </c>
       <c r="I10">
-        <v>0.538307260328921</v>
+        <v>0.5098934550989346</v>
       </c>
       <c r="J10">
-        <v>-45127.53324691765</v>
+        <v>-60520.61620121475</v>
       </c>
       <c r="K10">
-        <v>0.2142069762485717</v>
+        <v>0.3146196474240057</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10">
-        <v>3745</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -864,40 +864,40 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>108883.5818591629</v>
+        <v>120740.5275577168</v>
       </c>
       <c r="E11">
-        <v>0.1471657170223835</v>
+        <v>0.1451260213343937</v>
       </c>
       <c r="F11">
-        <v>739870.5626705301</v>
+        <v>831970.2176600789</v>
       </c>
       <c r="G11">
-        <v>0.06905068413079735</v>
+        <v>0.0699877907434145</v>
       </c>
       <c r="H11">
-        <v>0.06619507832830258</v>
+        <v>0.08669838809529637</v>
       </c>
       <c r="I11">
-        <v>0.3925581395348837</v>
+        <v>0.5403348554033486</v>
       </c>
       <c r="J11">
-        <v>-27396.57470714371</v>
+        <v>-50612.526130602</v>
       </c>
       <c r="K11">
-        <v>0.5268200753313751</v>
+        <v>0.229421980457415</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>1610</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -905,34 +905,34 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12">
-        <v>107163.8707196077</v>
+        <v>119634.6283815814</v>
       </c>
       <c r="E12">
-        <v>0.1865979204668056</v>
+        <v>0.1693662551524846</v>
       </c>
       <c r="F12">
-        <v>574303.6709708205</v>
+        <v>706366.3790279318</v>
       </c>
       <c r="G12">
-        <v>0.1087943023137702</v>
+        <v>0.08810539286551888</v>
       </c>
       <c r="H12">
-        <v>0.09159312017461795</v>
+        <v>0.09443000932576086</v>
       </c>
       <c r="I12">
-        <v>0.6278538812785388</v>
+        <v>0.5540334855403348</v>
       </c>
       <c r="J12">
-        <v>-43395.82866254219</v>
+        <v>-50417.60851346125</v>
       </c>
       <c r="K12">
-        <v>0.1692436051551902</v>
+        <v>0.195520624004034</v>
       </c>
       <c r="L12" t="s">
         <v>23</v>
@@ -946,40 +946,40 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>132985.3853734115</v>
+        <v>119544.2497126597</v>
       </c>
       <c r="E13">
-        <v>0.1791074493176543</v>
+        <v>0.1495735962188137</v>
       </c>
       <c r="F13">
-        <v>742489.4155996635</v>
+        <v>799233.6397245969</v>
       </c>
       <c r="G13">
-        <v>0.09777551860618036</v>
+        <v>0.07657430930014036</v>
       </c>
       <c r="H13">
-        <v>0.08700800876430004</v>
+        <v>0.08415908418097431</v>
       </c>
       <c r="I13">
-        <v>0.5623746490172483</v>
+        <v>0.5445205479452054</v>
       </c>
       <c r="J13">
-        <v>-39780.99065480908</v>
+        <v>-47948.61229581232</v>
       </c>
       <c r="K13">
-        <v>0.2093165712144704</v>
+        <v>0.2029683584761705</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>3745</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -987,40 +987,40 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>53754.56691081543</v>
+        <v>107163.8707196077</v>
       </c>
       <c r="E14">
-        <v>0.1154527287440537</v>
+        <v>0.1865979204668056</v>
       </c>
       <c r="F14">
-        <v>465598.0633423009</v>
+        <v>574303.6709708205</v>
       </c>
       <c r="G14">
-        <v>0.03631398054430435</v>
+        <v>0.1087943023137702</v>
       </c>
       <c r="H14">
-        <v>0.07786667464170509</v>
+        <v>0.09159312017461795</v>
       </c>
       <c r="I14">
-        <v>0.3051162790697675</v>
+        <v>0.6278538812785388</v>
       </c>
       <c r="J14">
-        <v>-14810.0400758899</v>
+        <v>-43395.82866254219</v>
       </c>
       <c r="K14">
-        <v>0.3028190517120923</v>
+        <v>0.1692436051551902</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M14">
-        <v>1610</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1028,34 +1028,34 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15">
-        <v>119544.2497126597</v>
+        <v>99766.59927891492</v>
       </c>
       <c r="E15">
-        <v>0.1495735962188137</v>
+        <v>0.1635219315961921</v>
       </c>
       <c r="F15">
-        <v>799233.6397245969</v>
+        <v>610111.4285102913</v>
       </c>
       <c r="G15">
-        <v>0.07657430930014036</v>
+        <v>0.0961660265806021</v>
       </c>
       <c r="H15">
-        <v>0.08415908418097431</v>
+        <v>0.08115040624599516</v>
       </c>
       <c r="I15">
-        <v>0.5445205479452054</v>
+        <v>0.6213850837138508</v>
       </c>
       <c r="J15">
-        <v>-47948.61229581232</v>
+        <v>-44540.1187487249</v>
       </c>
       <c r="K15">
-        <v>0.2029683584761705</v>
+        <v>0.1750983155315715</v>
       </c>
       <c r="L15" t="s">
         <v>23</v>
@@ -1069,40 +1069,40 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
       </c>
       <c r="D16">
-        <v>110827.7653819788</v>
+        <v>108883.5818591629</v>
       </c>
       <c r="E16">
-        <v>0.1481136829839156</v>
+        <v>0.1471657170223835</v>
       </c>
       <c r="F16">
-        <v>748261.4917759763</v>
+        <v>739870.5626705301</v>
       </c>
       <c r="G16">
-        <v>0.04989205136202098</v>
+        <v>0.06905068413079735</v>
       </c>
       <c r="H16">
-        <v>0.1036674652480942</v>
+        <v>0.06619507832830258</v>
       </c>
       <c r="I16">
-        <v>0.4849578820697955</v>
+        <v>0.3925581395348837</v>
       </c>
       <c r="J16">
-        <v>-63312.11534640848</v>
+        <v>-27396.57470714371</v>
       </c>
       <c r="K16">
-        <v>0.2824419136067811</v>
+        <v>0.5268200753313751</v>
       </c>
       <c r="L16" t="s">
         <v>24</v>
       </c>
       <c r="M16">
-        <v>3745</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1110,37 +1110,37 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>64684.47672747052</v>
+        <v>104234.0430075484</v>
       </c>
       <c r="E17">
-        <v>0.1313906511290855</v>
+        <v>0.133268664325106</v>
       </c>
       <c r="F17">
-        <v>492306.5391001133</v>
+        <v>782134.6716079609</v>
       </c>
       <c r="G17">
-        <v>0.04630197081367909</v>
+        <v>0.0651719438133111</v>
       </c>
       <c r="H17">
-        <v>0.07995207726609381</v>
+        <v>0.06254822531437192</v>
       </c>
       <c r="I17">
-        <v>0.3488372093023256</v>
+        <v>0.3618604651162791</v>
       </c>
       <c r="J17">
-        <v>-15784.95463945589</v>
+        <v>-27396.57470714371</v>
       </c>
       <c r="K17">
-        <v>0.3347689925152625</v>
+        <v>0.5026717901480494</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M17">
         <v>1610</v>
@@ -1154,37 +1154,37 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>119634.6283815814</v>
+        <v>64684.47672747052</v>
       </c>
       <c r="E18">
-        <v>0.1693662551524846</v>
+        <v>0.1313906511290855</v>
       </c>
       <c r="F18">
-        <v>706366.3790279318</v>
+        <v>492306.5391001133</v>
       </c>
       <c r="G18">
-        <v>0.08810539286551888</v>
+        <v>0.04630197081367909</v>
       </c>
       <c r="H18">
-        <v>0.09443000932576086</v>
+        <v>0.07995207726609381</v>
       </c>
       <c r="I18">
-        <v>0.5540334855403348</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="J18">
-        <v>-50417.60851346125</v>
+        <v>-15784.95463945589</v>
       </c>
       <c r="K18">
-        <v>0.195520624004034</v>
+        <v>0.3347689925152625</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>3947</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1192,40 +1192,40 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
       </c>
       <c r="D19">
-        <v>112881.9748078844</v>
+        <v>53754.56691081543</v>
       </c>
       <c r="E19">
-        <v>0.1651661698597414</v>
+        <v>0.1154527287440537</v>
       </c>
       <c r="F19">
-        <v>683444.8900991248</v>
+        <v>465598.0633423009</v>
       </c>
       <c r="G19">
-        <v>0.06043284095952262</v>
+        <v>0.03631398054430435</v>
       </c>
       <c r="H19">
-        <v>0.1110277851596362</v>
+        <v>0.07786667464170509</v>
       </c>
       <c r="I19">
-        <v>0.4905736060970718</v>
+        <v>0.3051162790697675</v>
       </c>
       <c r="J19">
-        <v>-64287.51312006393</v>
+        <v>-14810.0400758899</v>
       </c>
       <c r="K19">
-        <v>0.27962423722393</v>
+        <v>0.3028190517120923</v>
       </c>
       <c r="L19" t="s">
         <v>24</v>
       </c>
       <c r="M19">
-        <v>3745</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1233,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>49809.27387581347</v>
@@ -1263,7 +1263,7 @@
         <v>0.2953706684394327</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M20">
         <v>1610</v>
@@ -1274,40 +1274,40 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>120740.5275577168</v>
+        <v>47750.84698894864</v>
       </c>
       <c r="E21">
-        <v>0.1451260213343937</v>
+        <v>0.1105343680299737</v>
       </c>
       <c r="F21">
-        <v>831970.2176600789</v>
+        <v>432000</v>
       </c>
       <c r="G21">
-        <v>0.0699877907434145</v>
+        <v>0.0256137222318628</v>
       </c>
       <c r="H21">
-        <v>0.08669838809529637</v>
+        <v>0.08187240112222208</v>
       </c>
       <c r="I21">
-        <v>0.5403348554033486</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="J21">
-        <v>-50612.526130602</v>
+        <v>-11370.41637211642</v>
       </c>
       <c r="K21">
-        <v>0.229421980457415</v>
+        <v>0.296625001155902</v>
       </c>
       <c r="L21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>3947</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1315,40 +1315,40 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
       </c>
       <c r="D22">
-        <v>115881.9823468595</v>
+        <v>44276.35047303024</v>
       </c>
       <c r="E22">
-        <v>0.1441969251904151</v>
+        <v>0.1024915520209033</v>
       </c>
       <c r="F22">
-        <v>803636.9859748038</v>
+        <v>432000</v>
       </c>
       <c r="G22">
-        <v>0.04543711576135022</v>
+        <v>0.02293012645430801</v>
       </c>
       <c r="H22">
-        <v>0.1038283044415208</v>
+        <v>0.07935418064199232</v>
       </c>
       <c r="I22">
-        <v>0.4817488969113518</v>
+        <v>0.1506976744186047</v>
       </c>
       <c r="J22">
-        <v>-62479.10254027066</v>
+        <v>-11370.41637211642</v>
       </c>
       <c r="K22">
-        <v>0.2899224968867388</v>
+        <v>0.2869205451269181</v>
       </c>
       <c r="L22" t="s">
         <v>24</v>
       </c>
       <c r="M22">
-        <v>3745</v>
+        <v>1610</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_analyse_result/result.xlsx
+++ b/data/data_analyse_result/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
   <si>
     <t>policy</t>
   </si>
@@ -28,6 +28,9 @@
     <t>final_roi</t>
   </si>
   <si>
+    <t>final_invertissment</t>
+  </si>
+  <si>
     <t>mean_invertissment</t>
   </si>
   <si>
@@ -46,7 +49,16 @@
     <t>mean_argent_use</t>
   </si>
   <si>
-    <t>_buy_fv_3__sold_fv_new</t>
+    <t>from_to</t>
+  </si>
+  <si>
+    <t>duree</t>
+  </si>
+  <si>
+    <t>_buy_basic__sold_fv</t>
+  </si>
+  <si>
+    <t>_buy_fv__sold_basic</t>
   </si>
   <si>
     <t>_buy_fv_4__sold_fv</t>
@@ -58,13 +70,28 @@
     <t>_buy_fv_3__sold_basic</t>
   </si>
   <si>
-    <t>_buy_fv_3__sold_fv</t>
-  </si>
-  <si>
-    <t>min_0</t>
-  </si>
-  <si>
-    <t>max_0</t>
+    <t>_buy_basic__sold_basic</t>
+  </si>
+  <si>
+    <t>_buy_fv_10__sold_basic</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>20090803_20191104</t>
+  </si>
+  <si>
+    <t>20150608_20191104</t>
+  </si>
+  <si>
+    <t>20090113_20191104</t>
   </si>
 </sst>
 </file>
@@ -422,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,355 +486,938 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>125867.7707028589</v>
+      </c>
+      <c r="E2">
+        <v>0.1409022983503566</v>
+      </c>
+      <c r="F2">
+        <v>893298.208591928</v>
+      </c>
+      <c r="G2">
+        <v>358.3225866794737</v>
+      </c>
+      <c r="H2">
+        <v>0.03760661446654575</v>
+      </c>
+      <c r="I2">
+        <v>0.1110844708236402</v>
+      </c>
+      <c r="J2">
+        <v>0.4813477737665463</v>
+      </c>
+      <c r="K2">
+        <v>-63863.1929210753</v>
+      </c>
+      <c r="L2">
+        <v>0.3387248884269812</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>47750.84698894864</v>
+      </c>
+      <c r="E3">
+        <v>0.1105343680299737</v>
+      </c>
+      <c r="F3">
+        <v>432000</v>
+      </c>
+      <c r="G3">
+        <v>401.860465116279</v>
+      </c>
+      <c r="H3">
+        <v>0.02561372223186282</v>
+      </c>
+      <c r="I3">
+        <v>0.08187240112222209</v>
+      </c>
+      <c r="J3">
+        <v>0.2325581395348837</v>
+      </c>
+      <c r="K3">
+        <v>-11370.41637211642</v>
+      </c>
+      <c r="L3">
+        <v>0.2966250011559028</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>133527.2471775612</v>
+      </c>
+      <c r="E4">
+        <v>0.1411371113862966</v>
+      </c>
+      <c r="F4">
+        <v>946081.7630884694</v>
+      </c>
+      <c r="G4">
+        <v>360.0006708860234</v>
+      </c>
+      <c r="H4">
+        <v>0.05855577467978685</v>
+      </c>
+      <c r="I4">
+        <v>0.09540662825597529</v>
+      </c>
+      <c r="J4">
+        <v>0.5190258751902588</v>
+      </c>
+      <c r="K4">
+        <v>-60202.39496501541</v>
+      </c>
+      <c r="L4">
+        <v>0.3127610986595691</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>115881.9823468595</v>
+      </c>
+      <c r="E5">
+        <v>0.1441969251904151</v>
+      </c>
+      <c r="F5">
+        <v>803636.9859748038</v>
+      </c>
+      <c r="G5">
+        <v>322.3573950961908</v>
+      </c>
+      <c r="H5">
+        <v>0.04543711576135022</v>
+      </c>
+      <c r="I5">
+        <v>0.1038283044415208</v>
+      </c>
+      <c r="J5">
+        <v>0.4817488969113518</v>
+      </c>
+      <c r="K5">
+        <v>-62479.10254027066</v>
+      </c>
+      <c r="L5">
+        <v>0.2899224968867389</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>49809.27387581347</v>
+      </c>
+      <c r="E6">
+        <v>0.1109338673589908</v>
+      </c>
+      <c r="F6">
+        <v>448999.7064163164</v>
+      </c>
+      <c r="G6">
+        <v>417.6741455035501</v>
+      </c>
+      <c r="H6">
+        <v>0.03033273865251968</v>
+      </c>
+      <c r="I6">
+        <v>0.07961675178693525</v>
+      </c>
+      <c r="J6">
+        <v>0.2493023255813953</v>
+      </c>
+      <c r="K6">
+        <v>-13903.8739110856</v>
+      </c>
+      <c r="L6">
+        <v>0.295370668439433</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>120740.5275577168</v>
+      </c>
+      <c r="E7">
+        <v>0.1451260213343937</v>
+      </c>
+      <c r="F7">
+        <v>831970.2176600789</v>
+      </c>
+      <c r="G7">
+        <v>316.5792304642614</v>
+      </c>
+      <c r="H7">
+        <v>0.0699877907434145</v>
+      </c>
+      <c r="I7">
+        <v>0.08669838809529622</v>
+      </c>
+      <c r="J7">
+        <v>0.5403348554033486</v>
+      </c>
+      <c r="K7">
+        <v>-50612.526130602</v>
+      </c>
+      <c r="L7">
+        <v>0.229421980457416</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>165647.8365906624</v>
-      </c>
-      <c r="E2">
-        <v>0.1697948524413417</v>
-      </c>
-      <c r="F2">
-        <v>975576.3158243448</v>
-      </c>
-      <c r="G2">
-        <v>0.08389373478393788</v>
-      </c>
-      <c r="H2">
-        <v>0.09417083454075835</v>
-      </c>
-      <c r="I2">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>119634.6283815814</v>
+      </c>
+      <c r="E8">
+        <v>0.1693662551524846</v>
+      </c>
+      <c r="F8">
+        <v>706366.3790279318</v>
+      </c>
+      <c r="G8">
+        <v>268.7847713196088</v>
+      </c>
+      <c r="H8">
+        <v>0.08810539286551884</v>
+      </c>
+      <c r="I8">
+        <v>0.09443000932576087</v>
+      </c>
+      <c r="J8">
+        <v>0.5540334855403348</v>
+      </c>
+      <c r="K8">
+        <v>-50417.60851346125</v>
+      </c>
+      <c r="L8">
+        <v>0.1955206240040334</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>112881.9748078844</v>
+      </c>
+      <c r="E9">
+        <v>0.1651661698597414</v>
+      </c>
+      <c r="F9">
+        <v>683444.8900991248</v>
+      </c>
+      <c r="G9">
+        <v>274.1455636177797</v>
+      </c>
+      <c r="H9">
+        <v>0.06043284095952257</v>
+      </c>
+      <c r="I9">
+        <v>0.1110277851596361</v>
+      </c>
+      <c r="J9">
+        <v>0.4905736060970718</v>
+      </c>
+      <c r="K9">
+        <v>-64287.51312006393</v>
+      </c>
+      <c r="L9">
+        <v>0.2796242372239297</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>64684.47672747052</v>
+      </c>
+      <c r="E10">
+        <v>0.1313906511290855</v>
+      </c>
+      <c r="F10">
+        <v>492306.5391001133</v>
+      </c>
+      <c r="G10">
+        <v>457.9595712559194</v>
+      </c>
+      <c r="H10">
+        <v>0.04630197081367915</v>
+      </c>
+      <c r="I10">
+        <v>0.07995207726609382</v>
+      </c>
+      <c r="J10">
+        <v>0.3488372093023256</v>
+      </c>
+      <c r="K10">
+        <v>-15784.95463945589</v>
+      </c>
+      <c r="L10">
+        <v>0.334768992515262</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>132985.3853734115</v>
+      </c>
+      <c r="E11">
+        <v>0.1791074493176543</v>
+      </c>
+      <c r="F11">
+        <v>742489.4155996635</v>
+      </c>
+      <c r="G11">
+        <v>297.8296893701017</v>
+      </c>
+      <c r="H11">
+        <v>0.09777551860618032</v>
+      </c>
+      <c r="I11">
+        <v>0.08700800876429998</v>
+      </c>
+      <c r="J11">
+        <v>0.5623746490172483</v>
+      </c>
+      <c r="K11">
+        <v>-39780.99065480908</v>
+      </c>
+      <c r="L11">
+        <v>0.20931657121447</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>108883.5818591629</v>
+      </c>
+      <c r="E12">
+        <v>0.1471657170223835</v>
+      </c>
+      <c r="F12">
+        <v>739870.5626705301</v>
+      </c>
+      <c r="G12">
+        <v>688.2516862051442</v>
+      </c>
+      <c r="H12">
+        <v>0.06905068413079732</v>
+      </c>
+      <c r="I12">
+        <v>0.06619507832830258</v>
+      </c>
+      <c r="J12">
+        <v>0.3925581395348837</v>
+      </c>
+      <c r="K12">
+        <v>-27396.57470714371</v>
+      </c>
+      <c r="L12">
+        <v>0.5268200753313774</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>107163.8707196077</v>
+      </c>
+      <c r="E13">
+        <v>0.1865979204668056</v>
+      </c>
+      <c r="F13">
+        <v>574303.6709708205</v>
+      </c>
+      <c r="G13">
+        <v>218.5325993039652</v>
+      </c>
+      <c r="H13">
+        <v>0.1087943023137701</v>
+      </c>
+      <c r="I13">
+        <v>0.09159312017461793</v>
+      </c>
+      <c r="J13">
+        <v>0.6278538812785388</v>
+      </c>
+      <c r="K13">
+        <v>-43395.82866254219</v>
+      </c>
+      <c r="L13">
+        <v>0.1692436051551904</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>119544.2497126597</v>
+      </c>
+      <c r="E14">
+        <v>0.1495735962188137</v>
+      </c>
+      <c r="F14">
+        <v>799233.6397245969</v>
+      </c>
+      <c r="G14">
+        <v>304.1223895451282</v>
+      </c>
+      <c r="H14">
+        <v>0.07657430930014042</v>
+      </c>
+      <c r="I14">
+        <v>0.0841590841809743</v>
+      </c>
+      <c r="J14">
+        <v>0.5445205479452054</v>
+      </c>
+      <c r="K14">
+        <v>-47948.61229581232</v>
+      </c>
+      <c r="L14">
+        <v>0.2029683584761708</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>110827.7653819788</v>
+      </c>
+      <c r="E15">
+        <v>0.1481136829839156</v>
+      </c>
+      <c r="F15">
+        <v>748261.4917759763</v>
+      </c>
+      <c r="G15">
+        <v>300.1450027180009</v>
+      </c>
+      <c r="H15">
+        <v>0.04989205136202101</v>
+      </c>
+      <c r="I15">
+        <v>0.1036674652480942</v>
+      </c>
+      <c r="J15">
+        <v>0.4849578820697955</v>
+      </c>
+      <c r="K15">
+        <v>-63312.11534640848</v>
+      </c>
+      <c r="L15">
+        <v>0.2824419136067808</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>53754.56691081543</v>
+      </c>
+      <c r="E16">
+        <v>0.1154527287440537</v>
+      </c>
+      <c r="F16">
+        <v>465598.0633423009</v>
+      </c>
+      <c r="G16">
+        <v>433.1144775277218</v>
+      </c>
+      <c r="H16">
+        <v>0.03631398054430435</v>
+      </c>
+      <c r="I16">
+        <v>0.07786667464170512</v>
+      </c>
+      <c r="J16">
+        <v>0.3051162790697675</v>
+      </c>
+      <c r="K16">
+        <v>-14810.0400758899</v>
+      </c>
+      <c r="L16">
+        <v>0.3028190517120922</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>127725.707008559</v>
+      </c>
+      <c r="E17">
+        <v>0.1325374400863878</v>
+      </c>
+      <c r="F17">
+        <v>963695.2918760728</v>
+      </c>
+      <c r="G17">
+        <v>366.7029268934828</v>
+      </c>
+      <c r="H17">
+        <v>0.05326978848796218</v>
+      </c>
+      <c r="I17">
+        <v>0.09048875473515644</v>
+      </c>
+      <c r="J17">
         <v>0.5098934550989346</v>
       </c>
-      <c r="J2">
-        <v>-56600.70935944584</v>
-      </c>
-      <c r="K2">
-        <v>0.09268038830880151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>56466.60058826779</v>
-      </c>
-      <c r="E3">
-        <v>0.1202292414277818</v>
-      </c>
-      <c r="F3">
-        <v>469657.7963704912</v>
-      </c>
-      <c r="G3">
-        <v>0.04060414019932865</v>
-      </c>
-      <c r="H3">
-        <v>0.07735508841661565</v>
-      </c>
-      <c r="I3">
-        <v>0.3404651162790698</v>
-      </c>
-      <c r="J3">
-        <v>-12981.99399497337</v>
-      </c>
-      <c r="K3">
-        <v>0.137747990585621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>180176.8456481666</v>
-      </c>
-      <c r="E4">
-        <v>0.1793914006288787</v>
-      </c>
-      <c r="F4">
-        <v>1004378.387238934</v>
-      </c>
-      <c r="G4">
-        <v>0.09732736536690156</v>
-      </c>
-      <c r="H4">
-        <v>0.09282770266203999</v>
-      </c>
-      <c r="I4">
-        <v>0.5559360730593608</v>
-      </c>
-      <c r="J4">
-        <v>-53559.32279755827</v>
-      </c>
-      <c r="K4">
-        <v>0.07992680369209353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>64684.47672746948</v>
-      </c>
-      <c r="E5">
-        <v>0.1313906511290834</v>
-      </c>
-      <c r="F5">
-        <v>492306.5391001133</v>
-      </c>
-      <c r="G5">
-        <v>0.04630197081367717</v>
-      </c>
-      <c r="H5">
-        <v>0.07995207726609407</v>
-      </c>
-      <c r="I5">
-        <v>0.3488372093023256</v>
-      </c>
-      <c r="J5">
-        <v>-15784.95463945612</v>
-      </c>
-      <c r="K5">
-        <v>0.1673844962576319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>131646.1966876024</v>
-      </c>
-      <c r="E6">
-        <v>0.1506886271800632</v>
-      </c>
-      <c r="F6">
-        <v>873630.6060462925</v>
-      </c>
-      <c r="G6">
-        <v>0.07553840421616637</v>
-      </c>
-      <c r="H6">
-        <v>0.06914721822063097</v>
-      </c>
-      <c r="I6">
-        <v>0.466046511627907</v>
-      </c>
-      <c r="J6">
-        <v>-27396.57470714394</v>
-      </c>
-      <c r="K6">
-        <v>0.02947544751255052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>397723.6401862549</v>
-      </c>
-      <c r="E7">
-        <v>0.2005447762411771</v>
-      </c>
-      <c r="F7">
-        <v>1983216.155717507</v>
-      </c>
-      <c r="G7">
-        <v>0.1271964577335324</v>
-      </c>
-      <c r="H7">
-        <v>0.08176650967388423</v>
-      </c>
-      <c r="I7">
-        <v>0.6510654490106544</v>
-      </c>
-      <c r="J7">
-        <v>-85738.31733575929</v>
-      </c>
-      <c r="K7">
-        <v>0.003235834664194836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>147102.3623964777</v>
-      </c>
-      <c r="E8">
-        <v>0.1524518760200172</v>
-      </c>
-      <c r="F8">
-        <v>964910.1489388223</v>
-      </c>
-      <c r="G8">
-        <v>0.07900003695443923</v>
-      </c>
-      <c r="H8">
-        <v>0.08450785457193727</v>
-      </c>
-      <c r="I8">
-        <v>0.5449010654490106</v>
-      </c>
-      <c r="J8">
-        <v>-52190.08940183127</v>
-      </c>
-      <c r="K8">
-        <v>0.09300651926034569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>53754.56691081554</v>
-      </c>
-      <c r="E9">
-        <v>0.115452728744054</v>
-      </c>
-      <c r="F9">
-        <v>465598.0633423009</v>
-      </c>
-      <c r="G9">
-        <v>0.03631398054430478</v>
-      </c>
-      <c r="H9">
-        <v>0.07786667464170507</v>
-      </c>
-      <c r="I9">
-        <v>0.3051162790697675</v>
-      </c>
-      <c r="J9">
-        <v>-14810.0400758899</v>
-      </c>
-      <c r="K9">
-        <v>0.1514095258560459</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>167521.359474035</v>
-      </c>
-      <c r="E10">
-        <v>0.1727150835487359</v>
-      </c>
-      <c r="F10">
-        <v>969928.9490646285</v>
-      </c>
-      <c r="G10">
-        <v>0.0901685806563421</v>
-      </c>
-      <c r="H10">
-        <v>0.09425969902855691</v>
-      </c>
-      <c r="I10">
-        <v>0.5471841704718418</v>
-      </c>
-      <c r="J10">
-        <v>-55195.14398118109</v>
-      </c>
-      <c r="K10">
-        <v>0.09096650938018869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>59140.84879421094</v>
-      </c>
-      <c r="E11">
-        <v>0.1263848261454278</v>
-      </c>
-      <c r="F11">
-        <v>467942.6367700113</v>
-      </c>
-      <c r="G11">
-        <v>0.04022483025974641</v>
-      </c>
-      <c r="H11">
-        <v>0.08146849881778327</v>
-      </c>
-      <c r="I11">
-        <v>0.3404651162790698</v>
-      </c>
-      <c r="J11">
-        <v>-14810.0400758899</v>
-      </c>
-      <c r="K11">
-        <v>0.1597048224129385</v>
+      <c r="K17">
+        <v>-60520.61620121475</v>
+      </c>
+      <c r="L17">
+        <v>0.314619647424006</v>
+      </c>
+      <c r="M17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>44276.35047303024</v>
+      </c>
+      <c r="E18">
+        <v>0.1024915520209033</v>
+      </c>
+      <c r="F18">
+        <v>432000</v>
+      </c>
+      <c r="G18">
+        <v>401.860465116279</v>
+      </c>
+      <c r="H18">
+        <v>0.022930126454308</v>
+      </c>
+      <c r="I18">
+        <v>0.07935418064199233</v>
+      </c>
+      <c r="J18">
+        <v>0.1506976744186047</v>
+      </c>
+      <c r="K18">
+        <v>-11370.41637211642</v>
+      </c>
+      <c r="L18">
+        <v>0.286920545126918</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>119186.2034417923</v>
+      </c>
+      <c r="E19">
+        <v>0.1309198059229805</v>
+      </c>
+      <c r="F19">
+        <v>910375.6502045912</v>
+      </c>
+      <c r="G19">
+        <v>365.1727437643767</v>
+      </c>
+      <c r="H19">
+        <v>0.03018408822912567</v>
+      </c>
+      <c r="I19">
+        <v>0.1050069516421074</v>
+      </c>
+      <c r="J19">
+        <v>0.4600882470918572</v>
+      </c>
+      <c r="K19">
+        <v>-64647.7293802941</v>
+      </c>
+      <c r="L19">
+        <v>0.3420148864160879</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>99766.59927891492</v>
+      </c>
+      <c r="E20">
+        <v>0.1635219315961921</v>
+      </c>
+      <c r="F20">
+        <v>610111.4285102913</v>
+      </c>
+      <c r="G20">
+        <v>232.1580778197455</v>
+      </c>
+      <c r="H20">
+        <v>0.09616602658060203</v>
+      </c>
+      <c r="I20">
+        <v>0.08115040624599509</v>
+      </c>
+      <c r="J20">
+        <v>0.6213850837138508</v>
+      </c>
+      <c r="K20">
+        <v>-44540.1187487249</v>
+      </c>
+      <c r="L20">
+        <v>0.175098315531572</v>
+      </c>
+      <c r="M20" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>104234.0430075484</v>
+      </c>
+      <c r="E21">
+        <v>0.133268664325106</v>
+      </c>
+      <c r="F21">
+        <v>782134.6716079609</v>
+      </c>
+      <c r="G21">
+        <v>727.5671363794986</v>
+      </c>
+      <c r="H21">
+        <v>0.06517194381331107</v>
+      </c>
+      <c r="I21">
+        <v>0.06254822531437199</v>
+      </c>
+      <c r="J21">
+        <v>0.3618604651162791</v>
+      </c>
+      <c r="K21">
+        <v>-27396.57470714371</v>
+      </c>
+      <c r="L21">
+        <v>0.5026717901480479</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>124987.9848905976</v>
+      </c>
+      <c r="E22">
+        <v>0.1594663050223913</v>
+      </c>
+      <c r="F22">
+        <v>783789.3081742097</v>
+      </c>
+      <c r="G22">
+        <v>314.3960321597311</v>
+      </c>
+      <c r="H22">
+        <v>0.08388305159458409</v>
+      </c>
+      <c r="I22">
+        <v>0.08122272205361149</v>
+      </c>
+      <c r="J22">
+        <v>0.538307260328921</v>
+      </c>
+      <c r="K22">
+        <v>-45127.53324691765</v>
+      </c>
+      <c r="L22">
+        <v>0.2142069762485715</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22">
+        <v>3745</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_analyse_result/result.xlsx
+++ b/data/data_analyse_result/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
   <si>
     <t>policy</t>
   </si>
@@ -55,43 +55,46 @@
     <t>duree</t>
   </si>
   <si>
+    <t>_buy_basic__sold_basic</t>
+  </si>
+  <si>
     <t>_buy_basic__sold_fv</t>
   </si>
   <si>
+    <t>_buy_fv_10__sold_basic</t>
+  </si>
+  <si>
+    <t>_buy_fv_10__sold_fv</t>
+  </si>
+  <si>
+    <t>_buy_fv_3__sold_basic</t>
+  </si>
+  <si>
+    <t>_buy_fv_4__sold_fv</t>
+  </si>
+  <si>
     <t>_buy_fv__sold_basic</t>
   </si>
   <si>
-    <t>_buy_fv_4__sold_fv</t>
-  </si>
-  <si>
-    <t>_buy_fv_10__sold_fv</t>
-  </si>
-  <si>
-    <t>_buy_fv_3__sold_basic</t>
-  </si>
-  <si>
-    <t>_buy_basic__sold_basic</t>
-  </si>
-  <si>
-    <t>_buy_fv_10__sold_basic</t>
+    <t>_buy_fv_time__sold_basic</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
   <si>
     <t>now</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
+    <t>20150608_20191104</t>
+  </si>
+  <si>
+    <t>20090113_20191104</t>
   </si>
   <si>
     <t>20090803_20191104</t>
-  </si>
-  <si>
-    <t>20150608_20191104</t>
-  </si>
-  <si>
-    <t>20090113_20191104</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,40 +507,40 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>125867.7707028589</v>
+        <v>44276.35047303024</v>
       </c>
       <c r="E2">
-        <v>0.1409022983503566</v>
+        <v>0.1024915520209033</v>
       </c>
       <c r="F2">
-        <v>893298.208591928</v>
+        <v>432000</v>
       </c>
       <c r="G2">
-        <v>358.3225866794737</v>
+        <v>401.860465116279</v>
       </c>
       <c r="H2">
-        <v>0.03760661446654575</v>
+        <v>0.02293012645430801</v>
       </c>
       <c r="I2">
-        <v>0.1110844708236402</v>
+        <v>0.07935418064199232</v>
       </c>
       <c r="J2">
-        <v>0.4813477737665463</v>
+        <v>0.1506976744186047</v>
       </c>
       <c r="K2">
-        <v>-63863.1929210753</v>
+        <v>-11370.41637211642</v>
       </c>
       <c r="L2">
-        <v>0.3387248884269812</v>
+        <v>0.2869205451269181</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2">
-        <v>3745</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -548,40 +551,40 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>47750.84698894864</v>
+        <v>127725.707008559</v>
       </c>
       <c r="E3">
-        <v>0.1105343680299737</v>
+        <v>0.1325374400863878</v>
       </c>
       <c r="F3">
-        <v>432000</v>
+        <v>963695.2918760728</v>
       </c>
       <c r="G3">
-        <v>401.860465116279</v>
+        <v>366.7029268934828</v>
       </c>
       <c r="H3">
-        <v>0.02561372223186282</v>
+        <v>0.0532697884879622</v>
       </c>
       <c r="I3">
-        <v>0.08187240112222209</v>
+        <v>0.09048875473515647</v>
       </c>
       <c r="J3">
-        <v>0.2325581395348837</v>
+        <v>0.5098934550989346</v>
       </c>
       <c r="K3">
-        <v>-11370.41637211642</v>
+        <v>-60520.61620121475</v>
       </c>
       <c r="L3">
-        <v>0.2966250011559028</v>
+        <v>0.3146196474240057</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3">
-        <v>1610</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -592,40 +595,40 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>133527.2471775612</v>
+        <v>119186.2034417923</v>
       </c>
       <c r="E4">
-        <v>0.1411371113862966</v>
+        <v>0.1309198059229805</v>
       </c>
       <c r="F4">
-        <v>946081.7630884694</v>
+        <v>910375.6502045912</v>
       </c>
       <c r="G4">
-        <v>360.0006708860234</v>
+        <v>365.1727437643767</v>
       </c>
       <c r="H4">
-        <v>0.05855577467978685</v>
+        <v>0.03018408822912571</v>
       </c>
       <c r="I4">
-        <v>0.09540662825597529</v>
+        <v>0.1050069516421074</v>
       </c>
       <c r="J4">
-        <v>0.5190258751902588</v>
+        <v>0.4600882470918572</v>
       </c>
       <c r="K4">
-        <v>-60202.39496501541</v>
+        <v>-64647.7293802941</v>
       </c>
       <c r="L4">
-        <v>0.3127610986595691</v>
+        <v>0.3420148864160865</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4">
-        <v>3947</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -636,40 +639,40 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>115881.9823468595</v>
+        <v>47750.84698894864</v>
       </c>
       <c r="E5">
-        <v>0.1441969251904151</v>
+        <v>0.1105343680299737</v>
       </c>
       <c r="F5">
-        <v>803636.9859748038</v>
+        <v>432000</v>
       </c>
       <c r="G5">
-        <v>322.3573950961908</v>
+        <v>401.860465116279</v>
       </c>
       <c r="H5">
-        <v>0.04543711576135022</v>
+        <v>0.0256137222318628</v>
       </c>
       <c r="I5">
-        <v>0.1038283044415208</v>
+        <v>0.08187240112222208</v>
       </c>
       <c r="J5">
-        <v>0.4817488969113518</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="K5">
-        <v>-62479.10254027066</v>
+        <v>-11370.41637211642</v>
       </c>
       <c r="L5">
-        <v>0.2899224968867389</v>
+        <v>0.296625001155902</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
-        <v>3745</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -680,40 +683,40 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>49809.27387581347</v>
+        <v>133527.2471775612</v>
       </c>
       <c r="E6">
-        <v>0.1109338673589908</v>
+        <v>0.1411371113862966</v>
       </c>
       <c r="F6">
-        <v>448999.7064163164</v>
+        <v>946081.7630884694</v>
       </c>
       <c r="G6">
-        <v>417.6741455035501</v>
+        <v>360.0006708860234</v>
       </c>
       <c r="H6">
-        <v>0.03033273865251968</v>
+        <v>0.0585557746797869</v>
       </c>
       <c r="I6">
-        <v>0.07961675178693525</v>
+        <v>0.09540662825597523</v>
       </c>
       <c r="J6">
-        <v>0.2493023255813953</v>
+        <v>0.5190258751902588</v>
       </c>
       <c r="K6">
-        <v>-13903.8739110856</v>
+        <v>-60202.39496501541</v>
       </c>
       <c r="L6">
-        <v>0.295370668439433</v>
+        <v>0.3127610986595709</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N6">
-        <v>1610</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -724,40 +727,40 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>120740.5275577168</v>
+        <v>125867.7707028589</v>
       </c>
       <c r="E7">
-        <v>0.1451260213343937</v>
+        <v>0.1409022983503566</v>
       </c>
       <c r="F7">
-        <v>831970.2176600789</v>
+        <v>893298.208591928</v>
       </c>
       <c r="G7">
-        <v>316.5792304642614</v>
+        <v>358.3225866794737</v>
       </c>
       <c r="H7">
-        <v>0.0699877907434145</v>
+        <v>0.03760661446654573</v>
       </c>
       <c r="I7">
-        <v>0.08669838809529622</v>
+        <v>0.1110844708236402</v>
       </c>
       <c r="J7">
-        <v>0.5403348554033486</v>
+        <v>0.4813477737665463</v>
       </c>
       <c r="K7">
-        <v>-50612.526130602</v>
+        <v>-63863.1929210753</v>
       </c>
       <c r="L7">
-        <v>0.229421980457416</v>
+        <v>0.3387248884269816</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N7">
-        <v>3947</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -768,40 +771,40 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>119634.6283815814</v>
+        <v>104234.0430075484</v>
       </c>
       <c r="E8">
-        <v>0.1693662551524846</v>
+        <v>0.133268664325106</v>
       </c>
       <c r="F8">
-        <v>706366.3790279318</v>
+        <v>782134.6716079609</v>
       </c>
       <c r="G8">
-        <v>268.7847713196088</v>
+        <v>727.5671363794986</v>
       </c>
       <c r="H8">
-        <v>0.08810539286551884</v>
+        <v>0.0651719438133111</v>
       </c>
       <c r="I8">
-        <v>0.09443000932576087</v>
+        <v>0.06254822531437192</v>
       </c>
       <c r="J8">
-        <v>0.5540334855403348</v>
+        <v>0.3618604651162791</v>
       </c>
       <c r="K8">
-        <v>-50417.60851346125</v>
+        <v>-27396.57470714371</v>
       </c>
       <c r="L8">
-        <v>0.1955206240040334</v>
+        <v>0.5026717901480494</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N8">
-        <v>3947</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -812,40 +815,40 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>112881.9748078844</v>
+        <v>99766.59927891492</v>
       </c>
       <c r="E9">
-        <v>0.1651661698597414</v>
+        <v>0.1635219315961921</v>
       </c>
       <c r="F9">
-        <v>683444.8900991248</v>
+        <v>610111.4285102913</v>
       </c>
       <c r="G9">
-        <v>274.1455636177797</v>
+        <v>232.1580778197455</v>
       </c>
       <c r="H9">
-        <v>0.06043284095952257</v>
+        <v>0.0961660265806021</v>
       </c>
       <c r="I9">
-        <v>0.1110277851596361</v>
+        <v>0.08115040624599516</v>
       </c>
       <c r="J9">
-        <v>0.4905736060970718</v>
+        <v>0.6213850837138508</v>
       </c>
       <c r="K9">
-        <v>-64287.51312006393</v>
+        <v>-44540.1187487249</v>
       </c>
       <c r="L9">
-        <v>0.2796242372239297</v>
+        <v>0.1750983155315715</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N9">
-        <v>3745</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -856,40 +859,40 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>64684.47672747052</v>
+        <v>124987.9848905976</v>
       </c>
       <c r="E10">
-        <v>0.1313906511290855</v>
+        <v>0.1594663050223913</v>
       </c>
       <c r="F10">
-        <v>492306.5391001133</v>
+        <v>783789.3081742097</v>
       </c>
       <c r="G10">
-        <v>457.9595712559194</v>
+        <v>314.3960321597311</v>
       </c>
       <c r="H10">
-        <v>0.04630197081367915</v>
+        <v>0.08388305159458413</v>
       </c>
       <c r="I10">
-        <v>0.07995207726609382</v>
+        <v>0.08122272205361142</v>
       </c>
       <c r="J10">
-        <v>0.3488372093023256</v>
+        <v>0.538307260328921</v>
       </c>
       <c r="K10">
-        <v>-15784.95463945589</v>
+        <v>-45127.53324691765</v>
       </c>
       <c r="L10">
-        <v>0.334768992515262</v>
+        <v>0.2142069762485717</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N10">
-        <v>1610</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -900,40 +903,40 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>132985.3853734115</v>
+        <v>108883.5818591629</v>
       </c>
       <c r="E11">
-        <v>0.1791074493176543</v>
+        <v>0.1471657170223835</v>
       </c>
       <c r="F11">
-        <v>742489.4155996635</v>
+        <v>739870.5626705301</v>
       </c>
       <c r="G11">
-        <v>297.8296893701017</v>
+        <v>688.2516862051442</v>
       </c>
       <c r="H11">
-        <v>0.09777551860618032</v>
+        <v>0.06905068413079735</v>
       </c>
       <c r="I11">
-        <v>0.08700800876429998</v>
+        <v>0.06619507832830258</v>
       </c>
       <c r="J11">
-        <v>0.5623746490172483</v>
+        <v>0.3925581395348837</v>
       </c>
       <c r="K11">
-        <v>-39780.99065480908</v>
+        <v>-27396.57470714371</v>
       </c>
       <c r="L11">
-        <v>0.20931657121447</v>
+        <v>0.5268200753313751</v>
       </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N11">
-        <v>3745</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -944,40 +947,40 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>108883.5818591629</v>
+        <v>107163.8707196077</v>
       </c>
       <c r="E12">
-        <v>0.1471657170223835</v>
+        <v>0.1865979204668056</v>
       </c>
       <c r="F12">
-        <v>739870.5626705301</v>
+        <v>574303.6709708205</v>
       </c>
       <c r="G12">
-        <v>688.2516862051442</v>
+        <v>218.5325993039652</v>
       </c>
       <c r="H12">
-        <v>0.06905068413079732</v>
+        <v>0.1087943023137702</v>
       </c>
       <c r="I12">
-        <v>0.06619507832830258</v>
+        <v>0.09159312017461795</v>
       </c>
       <c r="J12">
-        <v>0.3925581395348837</v>
+        <v>0.6278538812785388</v>
       </c>
       <c r="K12">
-        <v>-27396.57470714371</v>
+        <v>-43395.82866254219</v>
       </c>
       <c r="L12">
-        <v>0.5268200753313774</v>
+        <v>0.1692436051551902</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N12">
-        <v>1610</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -988,40 +991,40 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>107163.8707196077</v>
+        <v>132985.3853734115</v>
       </c>
       <c r="E13">
-        <v>0.1865979204668056</v>
+        <v>0.1791074493176543</v>
       </c>
       <c r="F13">
-        <v>574303.6709708205</v>
+        <v>742489.4155996635</v>
       </c>
       <c r="G13">
-        <v>218.5325993039652</v>
+        <v>297.8296893701017</v>
       </c>
       <c r="H13">
-        <v>0.1087943023137701</v>
+        <v>0.09777551860618036</v>
       </c>
       <c r="I13">
-        <v>0.09159312017461793</v>
+        <v>0.08700800876430004</v>
       </c>
       <c r="J13">
-        <v>0.6278538812785388</v>
+        <v>0.5623746490172483</v>
       </c>
       <c r="K13">
-        <v>-43395.82866254219</v>
+        <v>-39780.99065480908</v>
       </c>
       <c r="L13">
-        <v>0.1692436051551904</v>
+        <v>0.2093165712144704</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N13">
-        <v>3947</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1032,40 +1035,40 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>119544.2497126597</v>
+        <v>53754.56691081543</v>
       </c>
       <c r="E14">
-        <v>0.1495735962188137</v>
+        <v>0.1154527287440537</v>
       </c>
       <c r="F14">
-        <v>799233.6397245969</v>
+        <v>465598.0633423009</v>
       </c>
       <c r="G14">
-        <v>304.1223895451282</v>
+        <v>433.1144775277218</v>
       </c>
       <c r="H14">
-        <v>0.07657430930014042</v>
+        <v>0.03631398054430435</v>
       </c>
       <c r="I14">
-        <v>0.0841590841809743</v>
+        <v>0.07786667464170509</v>
       </c>
       <c r="J14">
-        <v>0.5445205479452054</v>
+        <v>0.3051162790697675</v>
       </c>
       <c r="K14">
-        <v>-47948.61229581232</v>
+        <v>-14810.0400758899</v>
       </c>
       <c r="L14">
-        <v>0.2029683584761708</v>
+        <v>0.3028190517120923</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N14">
-        <v>3947</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1076,40 +1079,40 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>110827.7653819788</v>
+        <v>119544.2497126597</v>
       </c>
       <c r="E15">
-        <v>0.1481136829839156</v>
+        <v>0.1495735962188137</v>
       </c>
       <c r="F15">
-        <v>748261.4917759763</v>
+        <v>799233.6397245969</v>
       </c>
       <c r="G15">
-        <v>300.1450027180009</v>
+        <v>304.1223895451282</v>
       </c>
       <c r="H15">
-        <v>0.04989205136202101</v>
+        <v>0.07657430930014036</v>
       </c>
       <c r="I15">
-        <v>0.1036674652480942</v>
+        <v>0.08415908418097431</v>
       </c>
       <c r="J15">
-        <v>0.4849578820697955</v>
+        <v>0.5445205479452054</v>
       </c>
       <c r="K15">
-        <v>-63312.11534640848</v>
+        <v>-47948.61229581232</v>
       </c>
       <c r="L15">
-        <v>0.2824419136067808</v>
+        <v>0.2029683584761705</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N15">
-        <v>3745</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1120,40 +1123,40 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>53754.56691081543</v>
+        <v>110827.7653819788</v>
       </c>
       <c r="E16">
-        <v>0.1154527287440537</v>
+        <v>0.1481136829839156</v>
       </c>
       <c r="F16">
-        <v>465598.0633423009</v>
+        <v>748261.4917759763</v>
       </c>
       <c r="G16">
-        <v>433.1144775277218</v>
+        <v>300.1450027180009</v>
       </c>
       <c r="H16">
-        <v>0.03631398054430435</v>
+        <v>0.04989205136202098</v>
       </c>
       <c r="I16">
-        <v>0.07786667464170512</v>
+        <v>0.1036674652480942</v>
       </c>
       <c r="J16">
-        <v>0.3051162790697675</v>
+        <v>0.4849578820697955</v>
       </c>
       <c r="K16">
-        <v>-14810.0400758899</v>
+        <v>-63312.11534640848</v>
       </c>
       <c r="L16">
-        <v>0.3028190517120922</v>
+        <v>0.2824419136067811</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N16">
-        <v>1610</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1164,40 +1167,40 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>127725.707008559</v>
+        <v>64684.47672747052</v>
       </c>
       <c r="E17">
-        <v>0.1325374400863878</v>
+        <v>0.1313906511290855</v>
       </c>
       <c r="F17">
-        <v>963695.2918760728</v>
+        <v>492306.5391001133</v>
       </c>
       <c r="G17">
-        <v>366.7029268934828</v>
+        <v>457.9595712559194</v>
       </c>
       <c r="H17">
-        <v>0.05326978848796218</v>
+        <v>0.04630197081367909</v>
       </c>
       <c r="I17">
-        <v>0.09048875473515644</v>
+        <v>0.07995207726609381</v>
       </c>
       <c r="J17">
-        <v>0.5098934550989346</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="K17">
-        <v>-60520.61620121475</v>
+        <v>-15784.95463945589</v>
       </c>
       <c r="L17">
-        <v>0.314619647424006</v>
+        <v>0.3347689925152625</v>
       </c>
       <c r="M17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N17">
-        <v>3947</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1208,40 +1211,40 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>44276.35047303024</v>
+        <v>119634.6283815814</v>
       </c>
       <c r="E18">
-        <v>0.1024915520209033</v>
+        <v>0.1693662551524846</v>
       </c>
       <c r="F18">
-        <v>432000</v>
+        <v>706366.3790279318</v>
       </c>
       <c r="G18">
-        <v>401.860465116279</v>
+        <v>268.7847713196088</v>
       </c>
       <c r="H18">
-        <v>0.022930126454308</v>
+        <v>0.08810539286551888</v>
       </c>
       <c r="I18">
-        <v>0.07935418064199233</v>
+        <v>0.09443000932576086</v>
       </c>
       <c r="J18">
-        <v>0.1506976744186047</v>
+        <v>0.5540334855403348</v>
       </c>
       <c r="K18">
-        <v>-11370.41637211642</v>
+        <v>-50417.60851346125</v>
       </c>
       <c r="L18">
-        <v>0.286920545126918</v>
+        <v>0.195520624004034</v>
       </c>
       <c r="M18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N18">
-        <v>1610</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1252,37 +1255,37 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>119186.2034417923</v>
+        <v>112881.9748078844</v>
       </c>
       <c r="E19">
-        <v>0.1309198059229805</v>
+        <v>0.1651661698597414</v>
       </c>
       <c r="F19">
-        <v>910375.6502045912</v>
+        <v>683444.8900991248</v>
       </c>
       <c r="G19">
-        <v>365.1727437643767</v>
+        <v>274.1455636177797</v>
       </c>
       <c r="H19">
-        <v>0.03018408822912567</v>
+        <v>0.06043284095952262</v>
       </c>
       <c r="I19">
-        <v>0.1050069516421074</v>
+        <v>0.1110277851596362</v>
       </c>
       <c r="J19">
-        <v>0.4600882470918572</v>
+        <v>0.4905736060970718</v>
       </c>
       <c r="K19">
-        <v>-64647.7293802941</v>
+        <v>-64287.51312006393</v>
       </c>
       <c r="L19">
-        <v>0.3420148864160879</v>
+        <v>0.27962423722393</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>3745</v>
@@ -1296,40 +1299,40 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>99766.59927891492</v>
+        <v>49809.27387581347</v>
       </c>
       <c r="E20">
-        <v>0.1635219315961921</v>
+        <v>0.1109338673589908</v>
       </c>
       <c r="F20">
-        <v>610111.4285102913</v>
+        <v>448999.7064163164</v>
       </c>
       <c r="G20">
-        <v>232.1580778197455</v>
+        <v>417.6741455035501</v>
       </c>
       <c r="H20">
-        <v>0.09616602658060203</v>
+        <v>0.03033273865251962</v>
       </c>
       <c r="I20">
-        <v>0.08115040624599509</v>
+        <v>0.07961675178693522</v>
       </c>
       <c r="J20">
-        <v>0.6213850837138508</v>
+        <v>0.2493023255813953</v>
       </c>
       <c r="K20">
-        <v>-44540.1187487249</v>
+        <v>-13903.8739110856</v>
       </c>
       <c r="L20">
-        <v>0.175098315531572</v>
+        <v>0.2953706684394327</v>
       </c>
       <c r="M20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N20">
-        <v>3947</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1340,40 +1343,40 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>104234.0430075484</v>
+        <v>120740.5275577168</v>
       </c>
       <c r="E21">
-        <v>0.133268664325106</v>
+        <v>0.1451260213343937</v>
       </c>
       <c r="F21">
-        <v>782134.6716079609</v>
+        <v>831970.2176600789</v>
       </c>
       <c r="G21">
-        <v>727.5671363794986</v>
+        <v>316.5792304642614</v>
       </c>
       <c r="H21">
-        <v>0.06517194381331107</v>
+        <v>0.0699877907434145</v>
       </c>
       <c r="I21">
-        <v>0.06254822531437199</v>
+        <v>0.08669838809529637</v>
       </c>
       <c r="J21">
-        <v>0.3618604651162791</v>
+        <v>0.5403348554033486</v>
       </c>
       <c r="K21">
-        <v>-27396.57470714371</v>
+        <v>-50612.526130602</v>
       </c>
       <c r="L21">
-        <v>0.5026717901480479</v>
+        <v>0.229421980457415</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N21">
-        <v>1610</v>
+        <v>3947</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1384,39 +1387,171 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>115881.9823468595</v>
+      </c>
+      <c r="E22">
+        <v>0.1441969251904151</v>
+      </c>
+      <c r="F22">
+        <v>803636.9859748038</v>
+      </c>
+      <c r="G22">
+        <v>322.3573950961908</v>
+      </c>
+      <c r="H22">
+        <v>0.04543711576135022</v>
+      </c>
+      <c r="I22">
+        <v>0.1038283044415208</v>
+      </c>
+      <c r="J22">
+        <v>0.4817488969113518</v>
+      </c>
+      <c r="K22">
+        <v>-62479.10254027066</v>
+      </c>
+      <c r="L22">
+        <v>0.2899224968867388</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="D22">
-        <v>124987.9848905976</v>
-      </c>
-      <c r="E22">
-        <v>0.1594663050223913</v>
-      </c>
-      <c r="F22">
-        <v>783789.3081742097</v>
-      </c>
-      <c r="G22">
-        <v>314.3960321597311</v>
-      </c>
-      <c r="H22">
-        <v>0.08388305159458409</v>
-      </c>
-      <c r="I22">
-        <v>0.08122272205361149</v>
-      </c>
-      <c r="J22">
-        <v>0.538307260328921</v>
-      </c>
-      <c r="K22">
-        <v>-45127.53324691765</v>
-      </c>
-      <c r="L22">
-        <v>0.2142069762485715</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>51262.08727116947</v>
+      </c>
+      <c r="E23">
+        <v>0.1130339922005352</v>
+      </c>
+      <c r="F23">
+        <v>453510.3668657891</v>
+      </c>
+      <c r="G23">
+        <v>421.870108712362</v>
+      </c>
+      <c r="H23">
+        <v>0.03673394496024789</v>
+      </c>
+      <c r="I23">
+        <v>0.07591923771975206</v>
+      </c>
+      <c r="J23">
+        <v>0.2948837209302326</v>
+      </c>
+      <c r="K23">
+        <v>-12238.13613361726</v>
+      </c>
+      <c r="L23">
+        <v>0.2863067275811188</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>122865.9970501056</v>
+      </c>
+      <c r="E24">
+        <v>0.1451407685541742</v>
+      </c>
+      <c r="F24">
+        <v>846529.8776769638</v>
+      </c>
+      <c r="G24">
+        <v>322.1194359501384</v>
+      </c>
+      <c r="H24">
+        <v>0.06806094457010803</v>
+      </c>
+      <c r="I24">
+        <v>0.08796699779085108</v>
+      </c>
+      <c r="J24">
+        <v>0.5319634703196348</v>
+      </c>
+      <c r="K24">
+        <v>-53442.30639729678</v>
+      </c>
+      <c r="L24">
+        <v>0.2421015193408348</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="N22">
+      <c r="D25">
+        <v>114192.8282588581</v>
+      </c>
+      <c r="E25">
+        <v>0.1440769507510749</v>
+      </c>
+      <c r="F25">
+        <v>792582.2115443829</v>
+      </c>
+      <c r="G25">
+        <v>317.9230692115455</v>
+      </c>
+      <c r="H25">
+        <v>0.04557934617082653</v>
+      </c>
+      <c r="I25">
+        <v>0.1042921325259006</v>
+      </c>
+      <c r="J25">
+        <v>0.4845567589249899</v>
+      </c>
+      <c r="K25">
+        <v>-63462.0208405609</v>
+      </c>
+      <c r="L25">
+        <v>0.2928117882108728</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
         <v>3745</v>
       </c>
     </row>
